--- a/Design/Json处理/npcs.xlsx
+++ b/Design/Json处理/npcs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/Json处理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/Json处理/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="28740" windowHeight="20020"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="28740" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -806,6 +803,17 @@
     <t>找人</t>
     <rPh sb="0" eb="1">
       <t>zhao'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|1,200|2,300|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <rPh sb="0" eb="1">
+      <t>ge'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,7 +822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +843,14 @@
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -860,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1171,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,6 +1251,12 @@
         <v>20</v>
       </c>
       <c r="Q1" s="1"/>
+      <c r="R1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Design/Json处理/npcs.xlsx
+++ b/Design/Json处理/npcs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/Json处理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/Json处理/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="28740" windowHeight="15540"/>
+    <workbookView xWindow="-34820" yWindow="4080" windowWidth="28740" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="167">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -814,6 +817,34 @@
     <t>格式</t>
     <rPh sb="0" eb="1">
       <t>ge'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <rPh sb="0" eb="1">
+      <t>shou'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+    <rPh sb="0" eb="1">
+      <t>chong'feng'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪</t>
+    <rPh sb="0" eb="1">
+      <t>bu'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎枪</t>
+    <rPh sb="0" eb="1">
+      <t>lie'qiang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1188,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3192,6 +3223,9 @@
       <c r="O44">
         <v>1000</v>
       </c>
+      <c r="P44" t="s">
+        <v>163</v>
+      </c>
       <c r="Q44">
         <f t="shared" si="1"/>
         <v>6.1250000000000009</v>
@@ -3216,6 +3250,9 @@
       <c r="D45" t="s">
         <v>138</v>
       </c>
+      <c r="P45" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
@@ -3224,6 +3261,9 @@
       <c r="D46" t="s">
         <v>137</v>
       </c>
+      <c r="P46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
@@ -3231,6 +3271,9 @@
       </c>
       <c r="D47" t="s">
         <v>136</v>
+      </c>
+      <c r="P47" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
